--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -469,25 +469,25 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="C4">
-        <v>0.01621881327039994</v>
+        <v>0.01642874167860543</v>
       </c>
       <c r="D4">
-        <v>0.09011319235260046</v>
+        <v>0.08990326394439496</v>
       </c>
       <c r="E4">
-        <v>0.0518290945368735</v>
+        <v>0.05201831401399009</v>
       </c>
       <c r="F4">
-        <v>0.03828409781572694</v>
+        <v>0.03788494993040487</v>
       </c>
       <c r="G4">
-        <v>0.5751554593035994</v>
+        <v>0.5786031755884118</v>
       </c>
       <c r="H4">
-        <v>0.4248445406964007</v>
+        <v>0.4213968244115881</v>
       </c>
     </row>
     <row r="5">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B9" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="C9">
-        <v>0.08615529080345091</v>
+        <v>0.08673226219854474</v>
       </c>
       <c r="D9">
-        <v>0.02017671481954948</v>
+        <v>0.01959974342445565</v>
       </c>
       <c r="E9">
-        <v>0.01622994290432073</v>
+        <v>0.01498735273406567</v>
       </c>
       <c r="F9">
-        <v>0.003946771915228746</v>
+        <v>0.004612390690389978</v>
       </c>
       <c r="G9">
-        <v>0.8043897656022443</v>
+        <v>0.7646708637708567</v>
       </c>
       <c r="H9">
-        <v>0.1956102343977558</v>
+        <v>0.2353291362291433</v>
       </c>
     </row>
     <row r="10">
@@ -637,19 +637,25 @@
         </is>
       </c>
       <c r="B10" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="C10">
-        <v>0.1063320056230004</v>
+        <v>0.1063067266095513</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.527901344911987e-005</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.003888178225651688</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-0.003862899212202575</v>
+      </c>
+      <c r="G10">
+        <v>0.5016306773898076</v>
+      </c>
+      <c r="H10">
+        <v>0.4983693226101924</v>
       </c>
     </row>
   </sheetData>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,253 +409,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43919</v>
+        <v>43942</v>
       </c>
       <c r="C2">
-        <v>0.006754162448951098</v>
+        <v>0.02218477955630441</v>
       </c>
       <c r="D2">
-        <v>0.0995778431740493</v>
+        <v>0.1045459636779718</v>
       </c>
       <c r="E2">
-        <v>0.04091651535933921</v>
+        <v>0.06766502748277274</v>
       </c>
       <c r="F2">
-        <v>0.05866132781471008</v>
+        <v>0.03688093619519901</v>
       </c>
       <c r="G2">
-        <v>0.4108997951263355</v>
+        <v>0.6472275456869697</v>
       </c>
       <c r="H2">
-        <v>0.5891002048736646</v>
+        <v>0.3527724543130303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USA_NYC</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>43914</v>
+        <v>43872</v>
       </c>
       <c r="C3">
-        <v>0.01227108704745637</v>
+        <v>0.02290025071633238</v>
       </c>
       <c r="D3">
-        <v>0.09406091857554402</v>
+        <v>0.1038304925179438</v>
       </c>
       <c r="E3">
-        <v>0.04381243259804293</v>
+        <v>0.05076349467236136</v>
       </c>
       <c r="F3">
-        <v>0.05024848597750109</v>
+        <v>0.05306699784558243</v>
       </c>
       <c r="G3">
-        <v>0.4657878453829413</v>
+        <v>0.4889073858875176</v>
       </c>
       <c r="H3">
-        <v>0.5342121546170586</v>
+        <v>0.5110926141124823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43921</v>
+        <v>43914</v>
       </c>
       <c r="C4">
-        <v>0.01642874167860543</v>
+        <v>0.03983587515221891</v>
       </c>
       <c r="D4">
-        <v>0.08990326394439496</v>
+        <v>0.08689486808205725</v>
       </c>
       <c r="E4">
-        <v>0.05201831401399009</v>
+        <v>0.03057274166366116</v>
       </c>
       <c r="F4">
-        <v>0.03788494993040487</v>
+        <v>0.05632212641839609</v>
       </c>
       <c r="G4">
-        <v>0.5786031755884118</v>
+        <v>0.3518359868478133</v>
       </c>
       <c r="H4">
-        <v>0.4213968244115881</v>
+        <v>0.6481640131521868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43906</v>
+        <v>43940</v>
       </c>
       <c r="C5">
-        <v>0.01732289677803195</v>
+        <v>0.06870385174884934</v>
       </c>
       <c r="D5">
-        <v>0.08900910884496845</v>
+        <v>0.05802689148542682</v>
       </c>
       <c r="E5">
-        <v>0.02403173481812612</v>
+        <v>0.06176056925261551</v>
       </c>
       <c r="F5">
-        <v>0.06497737402684232</v>
+        <v>-0.003733677767188681</v>
       </c>
       <c r="G5">
-        <v>0.2699918595970147</v>
+        <v>0.9429922789087155</v>
       </c>
       <c r="H5">
-        <v>0.7300081404029852</v>
+        <v>0.05700772109128439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>43872</v>
+        <v>43937</v>
       </c>
       <c r="C6">
-        <v>0.02276530386775508</v>
+        <v>0.1050210003716739</v>
       </c>
       <c r="D6">
-        <v>0.08356670175524532</v>
+        <v>0.02170974286260229</v>
       </c>
       <c r="E6">
-        <v>0.04727717642065062</v>
+        <v>0.01026673246671048</v>
       </c>
       <c r="F6">
-        <v>0.03628952533459468</v>
+        <v>0.0114430103958918</v>
       </c>
       <c r="G6">
-        <v>0.5657418017898874</v>
+        <v>0.472908985227835</v>
       </c>
       <c r="H6">
-        <v>0.4342581982101126</v>
+        <v>0.5270910147721649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C7">
-        <v>0.03983587515221891</v>
+        <v>0.1272752828730058</v>
       </c>
       <c r="D7">
-        <v>0.06649613047078148</v>
+        <v>-0.000544539638729663</v>
       </c>
       <c r="E7">
-        <v>0.0222210188158589</v>
+        <v>-0.001134165635284979</v>
       </c>
       <c r="F7">
-        <v>0.04427511165492258</v>
+        <v>0.0005896259965553099</v>
       </c>
       <c r="G7">
-        <v>0.3341701037118671</v>
+        <v>0.6579482196895017</v>
       </c>
       <c r="H7">
-        <v>0.6658298962881327</v>
+        <v>0.3420517803104983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USA_WA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C8">
-        <v>0.04349561395511622</v>
-      </c>
-      <c r="D8">
-        <v>0.06283639166788418</v>
-      </c>
-      <c r="E8">
-        <v>0.02780073756751217</v>
-      </c>
-      <c r="F8">
-        <v>0.03503565410037202</v>
-      </c>
-      <c r="G8">
-        <v>0.4424305220205886</v>
-      </c>
-      <c r="H8">
-        <v>0.5575694779794114</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B9" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C9">
-        <v>0.08673226219854474</v>
-      </c>
-      <c r="D9">
-        <v>0.01959974342445565</v>
-      </c>
-      <c r="E9">
-        <v>0.01498735273406567</v>
-      </c>
-      <c r="F9">
-        <v>0.004612390690389978</v>
-      </c>
-      <c r="G9">
-        <v>0.7646708637708567</v>
-      </c>
-      <c r="H9">
-        <v>0.2353291362291433</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B10" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C10">
-        <v>0.1063067266095513</v>
-      </c>
-      <c r="D10">
-        <v>2.527901344911987e-005</v>
-      </c>
-      <c r="E10">
-        <v>0.003888178225651688</v>
-      </c>
-      <c r="F10">
-        <v>-0.003862899212202575</v>
-      </c>
-      <c r="G10">
-        <v>0.5016306773898076</v>
-      </c>
-      <c r="H10">
-        <v>0.4983693226101924</v>
+        <v>43941</v>
       </c>
     </row>
   </sheetData>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -372,35 +372,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CFR2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DiffIT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AgeCompIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RateCompIT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>relAgeIT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>relRateIT</t>
         </is>
@@ -409,179 +414,265 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
-        </is>
-      </c>
-      <c r="B2" s="2">
-        <v>43942</v>
-      </c>
-      <c r="C2">
-        <v>0.02218477955630441</v>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C2" s="2">
+        <v>43906</v>
       </c>
       <c r="D2">
-        <v>0.1045459636779718</v>
+        <v>0.01796725060231124</v>
       </c>
       <c r="E2">
-        <v>0.06766502748277274</v>
+        <v>0.1087634926319649</v>
       </c>
       <c r="F2">
-        <v>0.03688093619519901</v>
+        <v>0.02761523953432211</v>
       </c>
       <c r="G2">
-        <v>0.6472275456869697</v>
+        <v>0.0811482530976428</v>
       </c>
       <c r="H2">
-        <v>0.3527724543130303</v>
+        <v>0.2539017354634506</v>
+      </c>
+      <c r="I2">
+        <v>0.7460982645365494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B3" s="2">
-        <v>43872</v>
-      </c>
-      <c r="C3">
-        <v>0.02290025071633238</v>
+          <t>SouthKorea</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C3" s="2">
+        <v>43943</v>
       </c>
       <c r="D3">
-        <v>0.1038304925179438</v>
+        <v>0.02225547035720965</v>
       </c>
       <c r="E3">
-        <v>0.05076349467236136</v>
+        <v>0.1044752728770665</v>
       </c>
       <c r="F3">
-        <v>0.05306699784558243</v>
+        <v>0.06796079802737029</v>
       </c>
       <c r="G3">
-        <v>0.4889073858875176</v>
+        <v>0.03651447484969623</v>
       </c>
       <c r="H3">
-        <v>0.5110926141124823</v>
+        <v>0.6504964874065282</v>
+      </c>
+      <c r="I3">
+        <v>0.3495035125934719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B4" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C4">
-        <v>0.03983587515221891</v>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C4" s="2">
+        <v>43872</v>
       </c>
       <c r="D4">
-        <v>0.08689486808205725</v>
+        <v>0.02290025071633238</v>
       </c>
       <c r="E4">
-        <v>0.03057274166366116</v>
+        <v>0.1038304925179438</v>
       </c>
       <c r="F4">
-        <v>0.05632212641839609</v>
+        <v>0.05076349467236136</v>
       </c>
       <c r="G4">
-        <v>0.3518359868478133</v>
+        <v>0.05306699784558243</v>
       </c>
       <c r="H4">
-        <v>0.6481640131521868</v>
+        <v>0.4889073858875176</v>
+      </c>
+      <c r="I4">
+        <v>0.5110926141124823</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B5" s="2">
-        <v>43940</v>
-      </c>
-      <c r="C5">
-        <v>0.06870385174884934</v>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C5" s="2">
+        <v>43941</v>
       </c>
       <c r="D5">
-        <v>0.05802689148542682</v>
+        <v>0.03205143844597228</v>
       </c>
       <c r="E5">
-        <v>0.06176056925261551</v>
+        <v>0.09467930478830389</v>
       </c>
       <c r="F5">
-        <v>-0.003733677767188681</v>
+        <v>0.0440673623923047</v>
       </c>
       <c r="G5">
-        <v>0.9429922789087155</v>
+        <v>0.05061194239599919</v>
       </c>
       <c r="H5">
-        <v>0.05700772109128439</v>
+        <v>0.4654381703671796</v>
+      </c>
+      <c r="I5">
+        <v>0.5345618296328205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B6" s="2">
-        <v>43937</v>
-      </c>
-      <c r="C6">
-        <v>0.1050210003716739</v>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C6" s="2">
+        <v>43914</v>
       </c>
       <c r="D6">
-        <v>0.02170974286260229</v>
+        <v>0.03983587515221891</v>
       </c>
       <c r="E6">
-        <v>0.01026673246671048</v>
+        <v>0.08689486808205725</v>
       </c>
       <c r="F6">
-        <v>0.0114430103958918</v>
+        <v>0.03057274166366116</v>
       </c>
       <c r="G6">
-        <v>0.472908985227835</v>
+        <v>0.05632212641839609</v>
       </c>
       <c r="H6">
-        <v>0.5270910147721649</v>
+        <v>0.3518359868478133</v>
+      </c>
+      <c r="I6">
+        <v>0.6481640131521868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B7" s="2">
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C7" s="2">
         <v>43941</v>
       </c>
-      <c r="C7">
-        <v>0.1272752828730058</v>
-      </c>
       <c r="D7">
-        <v>-0.000544539638729663</v>
+        <v>0.0708957990420689</v>
       </c>
       <c r="E7">
-        <v>-0.001134165635284979</v>
+        <v>0.05583494419220726</v>
       </c>
       <c r="F7">
-        <v>0.0005896259965553099</v>
+        <v>0.06256839557423766</v>
       </c>
       <c r="G7">
-        <v>0.6579482196895017</v>
+        <v>-0.006733451382030385</v>
       </c>
       <c r="H7">
-        <v>0.3420517803104983</v>
+        <v>0.902838788895779</v>
+      </c>
+      <c r="I7">
+        <v>0.09716121110422116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B8" s="2">
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
+        <v>43937</v>
+      </c>
+      <c r="D8">
+        <v>0.1050210003716739</v>
+      </c>
+      <c r="E8">
+        <v>0.02170974286260229</v>
+      </c>
+      <c r="F8">
+        <v>0.01026673246671048</v>
+      </c>
+      <c r="G8">
+        <v>0.0114430103958918</v>
+      </c>
+      <c r="H8">
+        <v>0.472908985227835</v>
+      </c>
+      <c r="I8">
+        <v>0.5270910147721649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C9" s="2">
         <v>43941</v>
+      </c>
+      <c r="D9">
+        <v>0.1272752828730058</v>
+      </c>
+      <c r="E9">
+        <v>-0.000544539638729663</v>
+      </c>
+      <c r="F9">
+        <v>-0.001134165635284979</v>
+      </c>
+      <c r="G9">
+        <v>0.0005896259965553099</v>
+      </c>
+      <c r="H9">
+        <v>0.6579482196895017</v>
+      </c>
+      <c r="I9">
+        <v>0.3420517803104983</v>
       </c>
     </row>
   </sheetData>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,31 +423,31 @@
         </is>
       </c>
       <c r="C2" s="2">
-        <v>43906</v>
+        <v>43943</v>
       </c>
       <c r="D2">
-        <v>0.01796725060231124</v>
+        <v>0.02226482139517487</v>
       </c>
       <c r="E2">
-        <v>0.1087634926319649</v>
+        <v>0.1077415102689016</v>
       </c>
       <c r="F2">
-        <v>0.02761523953432211</v>
+        <v>0.07287847691095452</v>
       </c>
       <c r="G2">
-        <v>0.0811482530976428</v>
+        <v>0.03486303335794706</v>
       </c>
       <c r="H2">
-        <v>0.2539017354634506</v>
+        <v>0.676419670831272</v>
       </c>
       <c r="I2">
-        <v>0.7460982645365494</v>
+        <v>0.323580329168728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -456,31 +456,31 @@
         </is>
       </c>
       <c r="C3" s="2">
-        <v>43943</v>
+        <v>43872</v>
       </c>
       <c r="D3">
-        <v>0.02225547035720965</v>
+        <v>0.02290025071633238</v>
       </c>
       <c r="E3">
-        <v>0.1044752728770665</v>
+        <v>0.1071060809477441</v>
       </c>
       <c r="F3">
-        <v>0.06796079802737029</v>
+        <v>0.05419755578227433</v>
       </c>
       <c r="G3">
-        <v>0.03651447484969623</v>
+        <v>0.05290852516546973</v>
       </c>
       <c r="H3">
-        <v>0.6504964874065282</v>
+        <v>0.5060175416997729</v>
       </c>
       <c r="I3">
-        <v>0.3495035125934719</v>
+        <v>0.4939824583002271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -489,31 +489,31 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <v>43872</v>
+        <v>43943</v>
       </c>
       <c r="D4">
-        <v>0.02290025071633238</v>
+        <v>0.03807511017180802</v>
       </c>
       <c r="E4">
-        <v>0.1038304925179438</v>
+        <v>0.09193122149226841</v>
       </c>
       <c r="F4">
-        <v>0.05076349467236136</v>
+        <v>0.04858740299581205</v>
       </c>
       <c r="G4">
-        <v>0.05306699784558243</v>
+        <v>0.04334381849645638</v>
       </c>
       <c r="H4">
-        <v>0.4889073858875176</v>
+        <v>0.5285190624808388</v>
       </c>
       <c r="I4">
-        <v>0.5110926141124823</v>
+        <v>0.4714809375191612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="D5">
-        <v>0.03205143844597228</v>
+        <v>0.05598346774242222</v>
       </c>
       <c r="E5">
-        <v>0.09467930478830389</v>
+        <v>0.07402286392165422</v>
       </c>
       <c r="F5">
-        <v>0.0440673623923047</v>
+        <v>0.07038013310537267</v>
       </c>
       <c r="G5">
-        <v>0.05061194239599919</v>
+        <v>0.003642730816281557</v>
       </c>
       <c r="H5">
-        <v>0.4654381703671796</v>
+        <v>0.9507891126701472</v>
       </c>
       <c r="I5">
-        <v>0.5345618296328205</v>
+        <v>0.04921088732985287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -555,124 +555,52 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <v>43914</v>
+        <v>43943</v>
       </c>
       <c r="D6">
-        <v>0.03983587515221891</v>
+        <v>0.1040122728013148</v>
       </c>
       <c r="E6">
-        <v>0.08689486808205725</v>
+        <v>0.02599405886276164</v>
       </c>
       <c r="F6">
-        <v>0.03057274166366116</v>
+        <v>0.01328374519896857</v>
       </c>
       <c r="G6">
-        <v>0.05632212641839609</v>
+        <v>0.01271031366379308</v>
       </c>
       <c r="H6">
-        <v>0.3518359868478133</v>
+        <v>0.5110300499472394</v>
       </c>
       <c r="I6">
-        <v>0.6481640131521868</v>
+        <v>0.4889699500527606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C7" s="2">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="D7">
-        <v>0.0708957990420689</v>
+        <v>0.1300063316640764</v>
       </c>
       <c r="E7">
-        <v>0.05583494419220726</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06256839557423766</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.006733451382030385</v>
-      </c>
-      <c r="H7">
-        <v>0.902838788895779</v>
-      </c>
-      <c r="I7">
-        <v>0.09716121110422116</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C8" s="2">
-        <v>43937</v>
-      </c>
-      <c r="D8">
-        <v>0.1050210003716739</v>
-      </c>
-      <c r="E8">
-        <v>0.02170974286260229</v>
-      </c>
-      <c r="F8">
-        <v>0.01026673246671048</v>
-      </c>
-      <c r="G8">
-        <v>0.0114430103958918</v>
-      </c>
-      <c r="H8">
-        <v>0.472908985227835</v>
-      </c>
-      <c r="I8">
-        <v>0.5270910147721649</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C9" s="2">
-        <v>43941</v>
-      </c>
-      <c r="D9">
-        <v>0.1272752828730058</v>
-      </c>
-      <c r="E9">
-        <v>-0.000544539638729663</v>
-      </c>
-      <c r="F9">
-        <v>-0.001134165635284979</v>
-      </c>
-      <c r="G9">
-        <v>0.0005896259965553099</v>
-      </c>
-      <c r="H9">
-        <v>0.6579482196895017</v>
-      </c>
-      <c r="I9">
-        <v>0.3420517803104983</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +426,22 @@
         <v>43943</v>
       </c>
       <c r="D2">
-        <v>0.02226482139517487</v>
+        <v>0.02225547035720965</v>
       </c>
       <c r="E2">
-        <v>0.1077415102689016</v>
+        <v>0.1077507116422355</v>
       </c>
       <c r="F2">
-        <v>0.07287847691095452</v>
+        <v>0.0707498030982413</v>
       </c>
       <c r="G2">
-        <v>0.03486303335794706</v>
+        <v>0.03700090854399416</v>
       </c>
       <c r="H2">
-        <v>0.676419670831272</v>
+        <v>0.6566063650062172</v>
       </c>
       <c r="I2">
-        <v>0.323580329168728</v>
+        <v>0.343393634993783</v>
       </c>
     </row>
     <row r="3">
@@ -462,19 +462,19 @@
         <v>0.02290025071633238</v>
       </c>
       <c r="E3">
-        <v>0.1071060809477441</v>
+        <v>0.1071059312831127</v>
       </c>
       <c r="F3">
-        <v>0.05419755578227433</v>
+        <v>0.05290244791002885</v>
       </c>
       <c r="G3">
-        <v>0.05290852516546973</v>
+        <v>0.05420348337308388</v>
       </c>
       <c r="H3">
-        <v>0.5060175416997729</v>
+        <v>0.4939264079614041</v>
       </c>
       <c r="I3">
-        <v>0.4939824583002271</v>
+        <v>0.5060735920385959</v>
       </c>
     </row>
     <row r="4">
@@ -495,19 +495,19 @@
         <v>0.03807511017180802</v>
       </c>
       <c r="E4">
-        <v>0.09193122149226841</v>
+        <v>0.09193107182763709</v>
       </c>
       <c r="F4">
-        <v>0.04858740299581205</v>
+        <v>0.0486701250572603</v>
       </c>
       <c r="G4">
-        <v>0.04334381849645638</v>
+        <v>0.04326094677037679</v>
       </c>
       <c r="H4">
-        <v>0.5285190624808388</v>
+        <v>0.5294197499242979</v>
       </c>
       <c r="I4">
-        <v>0.4714809375191612</v>
+        <v>0.4705802500757021</v>
       </c>
     </row>
     <row r="5">
@@ -525,61 +525,61 @@
         <v>43943</v>
       </c>
       <c r="D5">
-        <v>0.05598346774242222</v>
+        <v>0.0559832330827703</v>
       </c>
       <c r="E5">
-        <v>0.07402286392165422</v>
+        <v>0.07402294891667481</v>
       </c>
       <c r="F5">
-        <v>0.07038013310537267</v>
+        <v>0.06586423660656014</v>
       </c>
       <c r="G5">
-        <v>0.003642730816281557</v>
+        <v>0.008158712310114681</v>
       </c>
       <c r="H5">
-        <v>0.9507891126701472</v>
+        <v>0.8897813120185381</v>
       </c>
       <c r="I5">
-        <v>0.04921088732985287</v>
+        <v>0.110218687981462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="C6" s="2">
         <v>43943</v>
       </c>
       <c r="D6">
-        <v>0.1040122728013148</v>
+        <v>0.07258978752642781</v>
       </c>
       <c r="E6">
-        <v>0.02599405886276164</v>
+        <v>0.0574163944730173</v>
       </c>
       <c r="F6">
-        <v>0.01328374519896857</v>
+        <v>0.06737503502022342</v>
       </c>
       <c r="G6">
-        <v>0.01271031366379308</v>
+        <v>-0.009958640547206117</v>
       </c>
       <c r="H6">
-        <v>0.5110300499472394</v>
+        <v>0.8712250455686297</v>
       </c>
       <c r="I6">
-        <v>0.4889699500527606</v>
+        <v>0.1287749544313704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -591,15 +591,48 @@
         <v>43943</v>
       </c>
       <c r="D7">
-        <v>0.1300063316640764</v>
+        <v>0.1040126934054379</v>
       </c>
       <c r="E7">
+        <v>0.02599348859400723</v>
+      </c>
+      <c r="F7">
+        <v>0.01257390976828207</v>
+      </c>
+      <c r="G7">
+        <v>0.01341957882572516</v>
+      </c>
+      <c r="H7">
+        <v>0.4837330596394426</v>
+      </c>
+      <c r="I7">
+        <v>0.5162669403605574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
+        <v>43943</v>
+      </c>
+      <c r="D8">
+        <v>0.1300061819994451</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -414,7 +414,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,25 +423,25 @@
         </is>
       </c>
       <c r="C2" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D2">
-        <v>0.02225547035720965</v>
+        <v>0.02203125</v>
       </c>
       <c r="E2">
-        <v>0.1077507116422355</v>
+        <v>0.1182694299609075</v>
       </c>
       <c r="F2">
-        <v>0.0707498030982413</v>
+        <v>0.07717615170773866</v>
       </c>
       <c r="G2">
-        <v>0.03700090854399416</v>
+        <v>0.04109327825316879</v>
       </c>
       <c r="H2">
-        <v>0.6566063650062172</v>
+        <v>0.6525452243512826</v>
       </c>
       <c r="I2">
-        <v>0.343393634993783</v>
+        <v>0.3474547756487174</v>
       </c>
     </row>
     <row r="3">
@@ -459,22 +459,22 @@
         <v>43872</v>
       </c>
       <c r="D3">
-        <v>0.02290025071633238</v>
+        <v>0.02290248925501433</v>
       </c>
       <c r="E3">
-        <v>0.1071059312831127</v>
+        <v>0.1173981907058931</v>
       </c>
       <c r="F3">
-        <v>0.05290244791002885</v>
+        <v>0.05714758074182483</v>
       </c>
       <c r="G3">
-        <v>0.05420348337308388</v>
+        <v>0.06025060996406829</v>
       </c>
       <c r="H3">
-        <v>0.4939264079614041</v>
+        <v>0.4867841693147674</v>
       </c>
       <c r="I3">
-        <v>0.5060735920385959</v>
+        <v>0.5132158306852326</v>
       </c>
     </row>
     <row r="4">
@@ -489,25 +489,25 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D4">
-        <v>0.03807511017180802</v>
+        <v>0.04641945524453683</v>
       </c>
       <c r="E4">
-        <v>0.09193107182763709</v>
+        <v>0.09388122471637062</v>
       </c>
       <c r="F4">
-        <v>0.0486701250572603</v>
+        <v>0.05876468611030111</v>
       </c>
       <c r="G4">
-        <v>0.04326094677037679</v>
+        <v>0.0351165386060695</v>
       </c>
       <c r="H4">
-        <v>0.5294197499242979</v>
+        <v>0.6259471612970338</v>
       </c>
       <c r="I4">
-        <v>0.4705802500757021</v>
+        <v>0.3740528387029662</v>
       </c>
     </row>
     <row r="5">
@@ -522,25 +522,25 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <v>43943</v>
+        <v>44009</v>
       </c>
       <c r="D5">
-        <v>0.0559832330827703</v>
+        <v>0.04752702796222197</v>
       </c>
       <c r="E5">
-        <v>0.07402294891667481</v>
+        <v>0.09277365199868548</v>
       </c>
       <c r="F5">
-        <v>0.06586423660656014</v>
+        <v>0.06932170549433306</v>
       </c>
       <c r="G5">
-        <v>0.008158712310114681</v>
+        <v>0.02345194650435243</v>
       </c>
       <c r="H5">
-        <v>0.8897813120185381</v>
+        <v>0.7472132874031442</v>
       </c>
       <c r="I5">
-        <v>0.110218687981462</v>
+        <v>0.2527867125968559</v>
       </c>
     </row>
     <row r="6">
@@ -555,25 +555,25 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D6">
-        <v>0.07258978752642781</v>
+        <v>0.08719684220304529</v>
       </c>
       <c r="E6">
-        <v>0.0574163944730173</v>
+        <v>0.05310383775786216</v>
       </c>
       <c r="F6">
-        <v>0.06737503502022342</v>
+        <v>0.08378443286145275</v>
       </c>
       <c r="G6">
-        <v>-0.009958640547206117</v>
+        <v>-0.03068059510359059</v>
       </c>
       <c r="H6">
-        <v>0.8712250455686297</v>
+        <v>0.7319653378064067</v>
       </c>
       <c r="I6">
-        <v>0.1287749544313704</v>
+        <v>0.2680346621935932</v>
       </c>
     </row>
     <row r="7">
@@ -588,25 +588,25 @@
         </is>
       </c>
       <c r="C7" s="2">
-        <v>43943</v>
+        <v>43972</v>
       </c>
       <c r="D7">
-        <v>0.1040126934054379</v>
+        <v>0.121913536873179</v>
       </c>
       <c r="E7">
-        <v>0.02599348859400723</v>
+        <v>0.01838714308772849</v>
       </c>
       <c r="F7">
-        <v>0.01257390976828207</v>
+        <v>0.00587308566284433</v>
       </c>
       <c r="G7">
-        <v>0.01341957882572516</v>
+        <v>0.01251405742488415</v>
       </c>
       <c r="H7">
-        <v>0.4837330596394426</v>
+        <v>0.3194126262477399</v>
       </c>
       <c r="I7">
-        <v>0.5162669403605574</v>
+        <v>0.6805873737522602</v>
       </c>
     </row>
     <row r="8">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="C8" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D8">
-        <v>0.1300061819994451</v>
+        <v>0.1403006799609075</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Output/AppendixTab2.xlsx
+++ b/Output/AppendixTab2.xlsx
@@ -492,22 +492,22 @@
         <v>44012</v>
       </c>
       <c r="D4">
-        <v>0.04641945524453683</v>
+        <v>0.04642482199629812</v>
       </c>
       <c r="E4">
-        <v>0.09388122471637062</v>
+        <v>0.09387585796460933</v>
       </c>
       <c r="F4">
-        <v>0.05876468611030111</v>
+        <v>0.05876486406603009</v>
       </c>
       <c r="G4">
-        <v>0.0351165386060695</v>
+        <v>0.03511099389857924</v>
       </c>
       <c r="H4">
-        <v>0.6259471612970338</v>
+        <v>0.6259848414720654</v>
       </c>
       <c r="I4">
-        <v>0.3740528387029662</v>
+        <v>0.3740151585279347</v>
       </c>
     </row>
     <row r="5">
@@ -525,22 +525,22 @@
         <v>44009</v>
       </c>
       <c r="D5">
-        <v>0.04752702796222197</v>
+        <v>0.04790879040367425</v>
       </c>
       <c r="E5">
-        <v>0.09277365199868548</v>
+        <v>0.09239188955723321</v>
       </c>
       <c r="F5">
-        <v>0.06932170549433306</v>
+        <v>0.06956997310975804</v>
       </c>
       <c r="G5">
-        <v>0.02345194650435243</v>
+        <v>0.02282191644747515</v>
       </c>
       <c r="H5">
-        <v>0.7472132874031442</v>
+        <v>0.7529878806803939</v>
       </c>
       <c r="I5">
-        <v>0.2527867125968559</v>
+        <v>0.2470121193196061</v>
       </c>
     </row>
     <row r="6">
